--- a/Recruiter_data.xlsx
+++ b/Recruiter_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
@@ -28,28 +28,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>Uday Gaidhane</t>
-  </si>
-  <si>
-    <t>day.gaidhane0934@gmail.com</t>
-  </si>
-  <si>
-    <t>iiitn</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>Nikhil</t>
-  </si>
-  <si>
-    <t>bt20cse062@iiitn.ac.in</t>
-  </si>
-  <si>
-    <t>ElectricPe</t>
-  </si>
-  <si>
-    <t>failed</t>
   </si>
 </sst>
 </file>
@@ -67,7 +46,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -112,10 +91,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -435,7 +414,7 @@
     <col min="4" max="4" style="4" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,27 +433,25 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
